--- a/Data/senator_approve.xlsx
+++ b/Data/senator_approve.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saireddy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saireddy/Desktop/GT_Final_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F75D8D4-6161-3648-8426-EACBE8F0E698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A3320E-0236-3540-8ABC-7AC9E5518783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{E5210A4C-4211-3B40-A0B9-671BAC255FF3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{E5210A4C-4211-3B40-A0B9-671BAC255FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$101</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,9 +50,6 @@
     <t>Disapprove</t>
   </si>
   <si>
-    <t>Don't Know / No Opinion</t>
-  </si>
-  <si>
     <t>Margin of Error</t>
   </si>
   <si>
@@ -74,12 +74,6 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>Jon Kyl</t>
-  </si>
-  <si>
-    <t>Jeff Flake</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -113,15 +107,9 @@
     <t>Richard Blumenthal</t>
   </si>
   <si>
-    <t>Chris Murphy</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
-    <t>Tom Carper</t>
-  </si>
-  <si>
     <t>Chris Coons</t>
   </si>
   <si>
@@ -131,18 +119,12 @@
     <t>Marco Rubio</t>
   </si>
   <si>
-    <t>Bill Nelson</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
     <t>David Perdue</t>
   </si>
   <si>
-    <t>Johnny Isakson</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
@@ -155,9 +137,6 @@
     <t>Idaho</t>
   </si>
   <si>
-    <t>Mike Crapo</t>
-  </si>
-  <si>
     <t>James Risch</t>
   </si>
   <si>
@@ -167,24 +146,15 @@
     <t>Tammy Duckworth</t>
   </si>
   <si>
-    <t>Dick Durbin</t>
-  </si>
-  <si>
     <t>Indiana</t>
   </si>
   <si>
     <t>Todd Young</t>
   </si>
   <si>
-    <t>Joe Donnelly</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
-    <t>Chuck Grassley</t>
-  </si>
-  <si>
     <t>Joni Ernst</t>
   </si>
   <si>
@@ -227,9 +197,6 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>Ben Cardin</t>
-  </si>
-  <si>
     <t>Chris Van Hollen</t>
   </si>
   <si>
@@ -239,9 +206,6 @@
     <t>Elizabeth Warren</t>
   </si>
   <si>
-    <t>Ed Markey</t>
-  </si>
-  <si>
     <t>Michigan</t>
   </si>
   <si>
@@ -275,9 +239,6 @@
     <t>Roy Blunt</t>
   </si>
   <si>
-    <t>Claire McCaskill</t>
-  </si>
-  <si>
     <t>Montana</t>
   </si>
   <si>
@@ -290,18 +251,12 @@
     <t>Nebraska</t>
   </si>
   <si>
-    <t>Ben Sasse</t>
-  </si>
-  <si>
     <t>Deb Fischer</t>
   </si>
   <si>
     <t>Nevada</t>
   </si>
   <si>
-    <t>Dean Heller</t>
-  </si>
-  <si>
     <t>Catherine Cortez Masto</t>
   </si>
   <si>
@@ -311,18 +266,12 @@
     <t>Jeanne Shaheen</t>
   </si>
   <si>
-    <t>Maggie Hassan</t>
-  </si>
-  <si>
     <t>New Jersey</t>
   </si>
   <si>
     <t>Cory Booker</t>
   </si>
   <si>
-    <t>Bob Menendez</t>
-  </si>
-  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -335,9 +284,6 @@
     <t>New York</t>
   </si>
   <si>
-    <t>Chuck Schumer</t>
-  </si>
-  <si>
     <t>Kirsten Gillibrand</t>
   </si>
   <si>
@@ -356,18 +302,12 @@
     <t>John Hoeven</t>
   </si>
   <si>
-    <t>Heidi Heitkamp</t>
-  </si>
-  <si>
     <t>Ohio</t>
   </si>
   <si>
     <t>Sherrod Brown</t>
   </si>
   <si>
-    <t>Rob Portman</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
@@ -389,18 +329,9 @@
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>Bob Casey</t>
-  </si>
-  <si>
-    <t>Pat Toomey</t>
-  </si>
-  <si>
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>Jack Reed</t>
-  </si>
-  <si>
     <t>Sheldon Whitehouse</t>
   </si>
   <si>
@@ -428,9 +359,6 @@
     <t>Lamar Alexander</t>
   </si>
   <si>
-    <t>Bob Corker</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -446,15 +374,9 @@
     <t>Mike Lee</t>
   </si>
   <si>
-    <t>Orrin Hatch</t>
-  </si>
-  <si>
     <t>Vermont</t>
   </si>
   <si>
-    <t>Bernie Sanders</t>
-  </si>
-  <si>
     <t>Patrick Leahy</t>
   </si>
   <si>
@@ -464,9 +386,6 @@
     <t>Mark Warner</t>
   </si>
   <si>
-    <t>Tim Kaine</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
@@ -479,9 +398,6 @@
     <t>West Virginia</t>
   </si>
   <si>
-    <t>Shelley Moore Capito</t>
-  </si>
-  <si>
     <t>Joe Manchin</t>
   </si>
   <si>
@@ -497,10 +413,97 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Mike Enzi</t>
-  </si>
-  <si>
     <t>John Barrasso</t>
+  </si>
+  <si>
+    <t>Richard Durbin</t>
+  </si>
+  <si>
+    <t>Michael Enzi</t>
+  </si>
+  <si>
+    <t>John Reed</t>
+  </si>
+  <si>
+    <t>Shelley Capito</t>
+  </si>
+  <si>
+    <t>Edward Markey</t>
+  </si>
+  <si>
+    <t>Benjamin Sasse</t>
+  </si>
+  <si>
+    <t>Michael Crapo</t>
+  </si>
+  <si>
+    <t>Charles Grassley</t>
+  </si>
+  <si>
+    <t>Charles Schumer</t>
+  </si>
+  <si>
+    <t>Robert Portman</t>
+  </si>
+  <si>
+    <t>Robert Casey</t>
+  </si>
+  <si>
+    <t>Timothy Kaine</t>
+  </si>
+  <si>
+    <t>Patrick Toomey</t>
+  </si>
+  <si>
+    <t>Margaret Hassan</t>
+  </si>
+  <si>
+    <t>Thomas Carper</t>
+  </si>
+  <si>
+    <t>Marsha Blackburn</t>
+  </si>
+  <si>
+    <t>Benjamin Cardin</t>
+  </si>
+  <si>
+    <t>Robert Menendez</t>
+  </si>
+  <si>
+    <t>Bernard Sanders</t>
+  </si>
+  <si>
+    <t>Christopher Murphy</t>
+  </si>
+  <si>
+    <t>Kyrsten Sinema</t>
+  </si>
+  <si>
+    <t>Kevin Cramer</t>
+  </si>
+  <si>
+    <t>Martha McSally</t>
+  </si>
+  <si>
+    <t>Jacky Rosen</t>
+  </si>
+  <si>
+    <t>Rick Scott</t>
+  </si>
+  <si>
+    <t>Mike Braun</t>
+  </si>
+  <si>
+    <t>Joshua Hawley</t>
+  </si>
+  <si>
+    <t>Mitt Romney</t>
+  </si>
+  <si>
+    <t>Kelly Loeffler</t>
+  </si>
+  <si>
+    <t>No Opinion</t>
   </si>
 </sst>
 </file>
@@ -516,12 +519,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -536,9 +551,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,10 +877,13 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -875,18 +899,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>0.47</v>
@@ -903,10 +927,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>0.4</v>
@@ -923,10 +947,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>0.39</v>
@@ -943,10 +967,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>0.4</v>
@@ -962,51 +986,47 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="5">
         <v>0.24</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.01</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>0.47</v>
@@ -1023,10 +1043,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>0.47</v>
@@ -1043,10 +1063,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>0.43</v>
@@ -1063,10 +1083,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>0.43</v>
@@ -1083,10 +1103,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>0.39</v>
@@ -1103,10 +1123,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>0.37</v>
@@ -1123,10 +1143,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <v>0.46</v>
@@ -1143,10 +1163,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1">
         <v>0.48</v>
@@ -1163,10 +1183,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1">
         <v>0.49</v>
@@ -1183,10 +1203,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>0.49</v>
@@ -1203,10 +1223,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>0.41</v>
@@ -1222,31 +1242,29 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.01</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>0.46</v>
@@ -1262,31 +1280,31 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="7">
         <v>0.43</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>0.27</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>0.31</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="7">
         <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>0.57999999999999996</v>
@@ -1303,10 +1321,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>0.56999999999999995</v>
@@ -1323,10 +1341,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1">
         <v>0.46</v>
@@ -1343,10 +1361,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>0.43</v>
@@ -1363,10 +1381,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
         <v>0.41</v>
@@ -1383,10 +1401,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>0.36</v>
@@ -1403,10 +1421,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <v>0.39</v>
@@ -1422,31 +1440,29 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.01</v>
-      </c>
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1">
         <v>0.42</v>
@@ -1463,10 +1479,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1">
         <v>0.4</v>
@@ -1483,10 +1499,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
         <v>0.38</v>
@@ -1503,10 +1519,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
         <v>0.36</v>
@@ -1523,10 +1539,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1">
         <v>0.43</v>
@@ -1543,10 +1559,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
         <v>0.38</v>
@@ -1563,10 +1579,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <v>0.48</v>
@@ -1583,10 +1599,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <v>0.46</v>
@@ -1603,10 +1619,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <v>0.56999999999999995</v>
@@ -1623,10 +1639,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1">
         <v>0.53</v>
@@ -1643,10 +1659,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C40" s="1">
         <v>0.5</v>
@@ -1663,10 +1679,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1">
         <v>0.44</v>
@@ -1683,10 +1699,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1">
         <v>0.51</v>
@@ -1703,10 +1719,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1">
         <v>0.51</v>
@@ -1723,10 +1739,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1">
         <v>0.46</v>
@@ -1743,10 +1759,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C45" s="1">
         <v>0.33</v>
@@ -1763,10 +1779,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1">
         <v>0.57999999999999996</v>
@@ -1783,10 +1799,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1">
         <v>0.43</v>
@@ -1803,10 +1819,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1">
         <v>0.5</v>
@@ -1823,10 +1839,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1">
         <v>0.42</v>
@@ -1843,10 +1859,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
+        <v>65</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C50" s="1">
         <v>0.39</v>
@@ -1862,31 +1878,29 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0.01</v>
-      </c>
+      <c r="A51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1">
         <v>0.51</v>
@@ -1903,10 +1917,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1">
         <v>0.49</v>
@@ -1923,10 +1937,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1">
         <v>0.46</v>
@@ -1943,10 +1957,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C55" s="1">
         <v>0.45</v>
@@ -1963,50 +1977,48 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C56" s="1">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D56" s="1">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="E56" s="1">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="F56" s="1">
         <v>0.02</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="A57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="D57" s="5">
         <v>0.33</v>
       </c>
-      <c r="E57" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0.02</v>
-      </c>
+      <c r="E57" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1">
         <v>0.51</v>
@@ -2023,10 +2035,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1">
         <v>0.48</v>
@@ -2043,10 +2055,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1">
         <v>0.47</v>
@@ -2063,10 +2075,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1">
         <v>0.33</v>
@@ -2083,10 +2095,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C62" s="1">
         <v>0.42</v>
@@ -2103,10 +2115,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1">
         <v>0.42</v>
@@ -2123,10 +2135,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C64" s="1">
         <v>0.47</v>
@@ -2143,10 +2155,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C65" s="1">
         <v>0.47</v>
@@ -2163,10 +2175,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C66" s="1">
         <v>0.4</v>
@@ -2183,10 +2195,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C67" s="1">
         <v>0.36</v>
@@ -2203,10 +2215,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68" t="s">
-        <v>106</v>
+        <v>86</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C68" s="1">
         <v>0.54</v>
@@ -2221,32 +2233,30 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>105</v>
-      </c>
-      <c r="B69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    <row r="69" spans="1:6" s="2" customFormat="1">
+      <c r="A69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" s="2" customFormat="1">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1">
         <v>0.46</v>
@@ -2261,12 +2271,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" s="2" customFormat="1">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C71" s="1">
         <v>0.38</v>
@@ -2281,12 +2291,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" s="2" customFormat="1">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C72" s="1">
         <v>0.39</v>
@@ -2301,12 +2311,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" s="2" customFormat="1">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1">
         <v>0.38</v>
@@ -2321,12 +2331,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" s="2" customFormat="1">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C74" s="1">
         <v>0.5</v>
@@ -2341,12 +2351,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" s="2" customFormat="1">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C75" s="1">
         <v>0.47</v>
@@ -2361,523 +2371,519 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
+    <row r="76" spans="1:6" s="2" customFormat="1">
+      <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1">
+      <c r="A77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1">
+      <c r="A78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1">
+      <c r="A79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="2" customFormat="1">
+      <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1">
+      <c r="A81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="2" customFormat="1">
+      <c r="A82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1">
+      <c r="A83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="2" customFormat="1">
+      <c r="A84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1">
+      <c r="A85" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E90" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="2" customFormat="1">
+      <c r="A92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="2" customFormat="1">
+      <c r="A93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="2" customFormat="1">
+      <c r="A94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C94" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="2" customFormat="1">
+      <c r="A95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="C95" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="2" customFormat="1">
+      <c r="A96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="2" customFormat="1">
+      <c r="A97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="2" customFormat="1">
+      <c r="A98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="2" customFormat="1">
+      <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="2" customFormat="1">
+      <c r="A100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="2" customFormat="1">
+      <c r="A101" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="D101" s="4">
         <v>0.26</v>
       </c>
-      <c r="F76" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F77" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="F78" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="F81" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F83" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>129</v>
-      </c>
-      <c r="B85" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F85" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F86" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="F87" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>135</v>
-      </c>
-      <c r="B88" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F88" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>135</v>
-      </c>
-      <c r="B89" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F89" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E90" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>138</v>
-      </c>
-      <c r="B91" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F91" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>141</v>
-      </c>
-      <c r="B92" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>141</v>
-      </c>
-      <c r="B93" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>144</v>
-      </c>
-      <c r="B94" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" t="s">
-        <v>148</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" t="s">
-        <v>149</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>150</v>
-      </c>
-      <c r="B98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>150</v>
-      </c>
-      <c r="B99" t="s">
-        <v>152</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>153</v>
-      </c>
-      <c r="B100" t="s">
-        <v>154</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>153</v>
-      </c>
-      <c r="B101" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E101" s="1">
+      <c r="E101" s="4">
         <v>0.12</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="4">
         <v>0.04</v>
       </c>
     </row>
